--- a/src/com/tongguan/main/test2.xlsx
+++ b/src/com/tongguan/main/test2.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TT\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="1" r:id="rId1"/>
     <sheet name="2015" sheetId="2" r:id="rId2"/>
     <sheet name="2016" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -77,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
@@ -501,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,7 +548,7 @@
         <v>35840.129999999997</v>
       </c>
       <c r="E2" s="3">
-        <v>4467.8</v>
+        <v>4457.8</v>
       </c>
       <c r="F2" s="3">
         <v>4467.8</v>
@@ -937,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -990,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>35840.129999999997</v>
+        <v>35850.129999999997</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1102,7 +1097,7 @@
         <v>28710.5</v>
       </c>
       <c r="F7" s="4">
-        <v>14388.38</v>
+        <v>14377.38</v>
       </c>
       <c r="G7" s="4">
         <v>63607.21</v>
